--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_14_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_14_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.2597753849642475, 4.671183388020332]</t>
+          <t>[4.259111227671317, 4.671847545313263]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.004518513280682868, 0.2838951429284311]</t>
+          <t>[0.0045970251832816444, 0.2838166310258323]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.04332252797715919</v>
+        <v>0.04321015758223545</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04332252797715919</v>
+        <v>0.04321015758223545</v>
       </c>
       <c r="W2" t="n">
         <v>6.298298298298466</v>
